--- a/biology/Botanique/Collio_Goriziano/Collio_Goriziano.xlsx
+++ b/biology/Botanique/Collio_Goriziano/Collio_Goriziano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Collio Goriziano est un vignoble italien de la région Frioul-Vénétie Julienne doté d'une appellation DOC depuis le 3 novembre 1989. Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret.
 </t>
@@ -511,7 +523,9 @@
           <t>Aire de l'appellation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les 1 500 hectares de vignobles autorisés se situent dans la province de Gorizia dans les communes et hameaux de Brazzano, Capriva del Friuli, Cormons - Plessiva, Dolegna del Collio, Farra d'Isonzo, Lucinico, Mossa, Oslavia, Ruttars et San Floriano del Collio.
 Les vignobles voisins sont Lison Pramaggiore, Friuli Isonzo, Colli Orientali del Friuli, Friuli Latisana, Friuli Annia, Friuli Aquileia et Friuli Grave
@@ -543,7 +557,9 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les cépages les plus importants sont :
 Chardonnay,
@@ -588,7 +604,9 @@
           <t>Vins, appellations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sous l’appellation, les vins suivants sont autorisés :
 Collio Goriziano Cabernet
